--- a/medicine/Sexualité et sexologie/Quills,_la_plume_et_le_sang/Quills,_la_plume_et_le_sang.xlsx
+++ b/medicine/Sexualité et sexologie/Quills,_la_plume_et_le_sang/Quills,_la_plume_et_le_sang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quills, la plume et le sang (Quills) est un film américano-germano-britannique réalisé par Philip Kaufman et sorti en 2000. Il s'agit d'une adaptation de la pièce de théâtre Quills, écrite par Doug Wright, également scénariste du film, et vainqueur de l'Off-Broadway Theater Award (ou Obie Award), prix remis par le journal The Village Voice et récompensant les meilleures pièces « Off Broadway ».
 Le film raconte les derniers mois de la vie du marquis de Sade.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Emprisonné à l'asile de Charenton dirigé par l'Abbé du Coulmier (Joaquin Phoenix), le marquis de Sade (Geoffrey Rush) parvient à faire passer nombre de ses écrits via une jeune lingère travaillant au couvent, Madeleine (Kate Winslet), fascinée par l'homme, tout en étant attirée par l'Abbé, qui lui refuse son amour.
 Mais l'administration estime que les méthodes de l'abbé sont trop « libérales », et le docteur Royer-Collard (Michael Caine) est envoyé à l'asile pour tenter de « soigner » le marquis, en le privant petit à petit de ses moyens d'expression.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Quills, la plume et le sang
 Titre original : Quills
@@ -597,7 +613,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Geoffrey Rush (VF : Jacques Frantz) : le Marquis de Sade
 Kate Winslet (VF : Anneliese Fromont) : Madeleine « Maddy » LeClerc
@@ -643,10 +661,12 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La réalisation avait été proposé à Paul Verhoeven. Avant de revenir à Joaquin Phoenix, le rôle de l'Abbé du Coulmier avait été proposé à Hugh Jackman[1].
-Le tournage a lieu à Londres (Old Royal Naval College), à Luton dans le Bedfordshire, à Oxford et ses environs dans l'Oxfordshire, ainsi que dans les Pinewood Studios dans le Buckinghamshire[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La réalisation avait été proposé à Paul Verhoeven. Avant de revenir à Joaquin Phoenix, le rôle de l'Abbé du Coulmier avait été proposé à Hugh Jackman.
+Le tournage a lieu à Londres (Old Royal Naval College), à Luton dans le Bedfordshire, à Oxford et ses environs dans l'Oxfordshire, ainsi que dans les Pinewood Studios dans le Buckinghamshire.
 </t>
         </is>
       </c>
@@ -675,7 +695,9 @@
           <t>Bande originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>La bande originale a été composée par Stephen Warbeck :
 The Marquis and the Scaffold - 3:08
@@ -736,14 +758,17 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Le film est noté à 74 % sur le site Rotten Tomatoes[3] et est évalué à 2 étoiles sur 4 sur le site d'Allociné[4].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film est noté à 74 % sur le site Rotten Tomatoes et est évalué à 2 étoiles sur 4 sur le site d'Allociné.
 Les commentaires du film ont globalement été bons, voire élogieux envers l'interprétation de Geoffrey Rush.
-Elvis Mitchell, du New York Times a félicité « l'élégance euphorique » de la direction de Kaufman et la performance de Geoffrey Rush « joyeuse... flamboyante »[5].
-Peter Travers, du magazine Rolling Stone a écrit que les acteurs étaient « exceptionnels », en particulier Geoffrey Rush, « scandaleusement bon », dans un film « lettré, érotique, et un délice à écouter »[6].
-Neil Schaeffer, auteur de The Marquis de Sade: A Life[7], utilisé par le réalisateur Philip Kaufman comme référence[8], a, dans une critique publiée dans le journal The Guardian, critiqué le film sur son manque d'exactitude historique[9]. Schaeffer a particulièrement critiqué que l'image de Sade, « un martyr de l'oppression et de la censure de l'Église et l'État », ait été éludée pour « une conclusion surréaliste et didactique qui n'a aucun lien avec la vérité ».
-Box-office
-Il a rapporté 17 989 227 $ au niveau mondial, dont 7 065 332 $ aux États-Unis[10].
+Elvis Mitchell, du New York Times a félicité « l'élégance euphorique » de la direction de Kaufman et la performance de Geoffrey Rush « joyeuse... flamboyante ».
+Peter Travers, du magazine Rolling Stone a écrit que les acteurs étaient « exceptionnels », en particulier Geoffrey Rush, « scandaleusement bon », dans un film « lettré, érotique, et un délice à écouter ».
+Neil Schaeffer, auteur de The Marquis de Sade: A Life, utilisé par le réalisateur Philip Kaufman comme référence, a, dans une critique publiée dans le journal The Guardian, critiqué le film sur son manque d'exactitude historique. Schaeffer a particulièrement critiqué que l'image de Sade, « un martyr de l'oppression et de la censure de l'Église et l'État », ait été éludée pour « une conclusion surréaliste et didactique qui n'a aucun lien avec la vérité ».
 </t>
         </is>
       </c>
@@ -769,18 +794,94 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Sortie et accueil</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a rapporté 17 989 227 $ au niveau mondial, dont 7 065 332 $ aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Récompenses
-Critics Choice Awards : meilleur acteur dans un rôle secondaire (Joaquin Phoenix)
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Récompenses</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Critics Choice Awards : meilleur acteur dans un rôle secondaire (Joaquin Phoenix)
 Evening Standard British Film Awards : meilleure actrice (Kate Winslet)
 National Board of Review : Freedom of Expression Award ; meilleur film ; meilleur acteur dans un rôle secondaire (Joaquin Phoenix)
-Satellite Awards : meilleur acteur - Drame (Geoffrey Rush) ; meilleur scénario adapté (Doug Wright)
-Nominations
-Oscars du cinéma : meilleur acteur dans un rôle principal (Geoffrey Rush) ; meilleure direction artistique (Martin Childs et Jill Quertier) ; meilleurs costumes (Jacqueline West)
+Satellite Awards : meilleur acteur - Drame (Geoffrey Rush) ; meilleur scénario adapté (Doug Wright)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Oscars du cinéma : meilleur acteur dans un rôle principal (Geoffrey Rush) ; meilleure direction artistique (Martin Childs et Jill Quertier) ; meilleurs costumes (Jacqueline West)
 BAFTA Awards : meilleur acteur dans un rôle principal (Geoffrey Rush) ; meilleure direction artistique (Martin Childs) ; meilleurs costumes (Jacqueline West) ; meilleurs maquillages et coiffures (Peter King) et Nuala Conway)
 Critics Choice Awards : meilleur film
 Empire Awards : meilleure actrice (Kate Winslet)
@@ -792,34 +893,36 @@
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Quills,_la_plume_et_le_sang</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Sexualité et sexologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Quills,_la_plume_et_le_sang</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Sexualité et sexologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Quills,_la_plume_et_le_sang</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Donatien Alphonse François, marquis de Sade, est un écrivain et un philosophe français, longtemps voué à l’anathème en raison de la part accordée dans son œuvre à un érotisme de la violence et de la cruauté. De son nom est tiré le néologisme « sadisme », pour désigner une perversion sexuelle dans laquelle la satisfaction est liée à la souffrance ou à l’humiliation infligée à autrui.
-Bien que basés sur les faits réels entourant la fin de la vie du marquis de Sade, le film a pris certaines libertés avec la réalité : la seconde femme du marquis, Marie-Constance Quesnet, a habité avec lui à l'asile de Charenton jusqu'à son suicide. Il a été rapporté qu'il aurait eu une liaison avec Madeleine Leclerc (interprétée par Kate Winslet), qui avait 13 ans à l'époque[11].
+Bien que basés sur les faits réels entourant la fin de la vie du marquis de Sade, le film a pris certaines libertés avec la réalité : la seconde femme du marquis, Marie-Constance Quesnet, a habité avec lui à l'asile de Charenton jusqu'à son suicide. Il a été rapporté qu'il aurait eu une liaison avec Madeleine Leclerc (interprétée par Kate Winslet), qui avait 13 ans à l'époque.
 </t>
         </is>
       </c>
